--- a/downloaded_files/EECS203_Lecture-35299.xlsx
+++ b/downloaded_files/EECS203_Lecture-35299.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,24 +51,6 @@
     <x:t>Ahmed Elsayed Aboelmaged</x:t>
   </x:si>
   <x:si>
-    <x:t>4240002</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">احمد سمير محمد حسين </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed samir Mohamed hussein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>امنيه اسماعيل حسن يحيي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omnia ismail hassan yehia</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230164</x:t>
   </x:si>
   <x:si>
@@ -78,15 +60,6 @@
     <x:t>Andrew Ehab George Shaker</x:t>
   </x:si>
   <x:si>
-    <x:t>2250008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>تميم عمرو نبيل محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tamim Amr Nabil Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230024</x:t>
   </x:si>
   <x:si>
@@ -96,33 +69,6 @@
     <x:t>Jana Ayman Helmy Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حسن عمرو مصطفي محمد يوسف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hassan amr mostafa mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حسن محمد محسن حسن محمد أحمد المسري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hassan Elmessary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رؤى حامد على محمد على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roaa Hamed Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>4240016</x:t>
   </x:si>
   <x:si>
@@ -147,12 +93,6 @@
     <x:t>Ziad Hazem Ahmed Shafik Kamil Hasan Abdel-Monem Kamil</x:t>
   </x:si>
   <x:si>
-    <x:t>4240017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد خالد سيف الله محمد</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220119</x:t>
   </x:si>
   <x:si>
@@ -162,15 +102,6 @@
     <x:t>Steven Sameh Daniel Ghabrial Beshai</x:t>
   </x:si>
   <x:si>
-    <x:t>1230195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى عمرو أحمد يوسف الشربيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Amr Ahmed Youssef Elsherbiny</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220061</x:t>
   </x:si>
   <x:si>
@@ -189,66 +120,12 @@
     <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
-    <x:t>1230055</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن خالد محمد فصيح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله إبراهيم عبدالله إبراهيم حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdallah ibraheem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي محمود علي كمال حسن خفاجي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mahmoud Ali Kamal Hassan Khafagy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد شحاته محمد عبد المغيث</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Shehata Mohamed Abdelmogheth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد قناوي محمود مصلح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Kenawi Mahmoud Mosleh</x:t>
-  </x:si>
-  <x:si>
     <x:t>4240033</x:t>
   </x:si>
   <x:si>
     <x:t>فاطمة اسماعيل احمد محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>1230225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فريده لؤى الدين ابو بكر السيد صالح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farida Loay Eldin AboBakr Elsayed Saleh</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230227</x:t>
   </x:si>
   <x:si>
@@ -267,15 +144,6 @@
     <x:t>Karim Tarek Abdalla</x:t>
   </x:si>
   <x:si>
-    <x:t>1220137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم محمد نجم الدين حمدي عفيفي الاحمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kareem Mohamed Negm El Din Hamdy Afify</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230228</x:t>
   </x:si>
   <x:si>
@@ -303,15 +171,6 @@
     <x:t>Mazen Mohamed Helmy Sayed Othman</x:t>
   </x:si>
   <x:si>
-    <x:t>1220273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد فهيم عبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed ahmed faheem</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230239</x:t>
   </x:si>
   <x:si>
@@ -321,15 +180,6 @@
     <x:t>Mohamed Ehab Saad Abdelkader Khalil Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1230105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد طارق محمد أحمد محمد هلال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Tarek Mohamed Ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230110</x:t>
   </x:si>
   <x:si>
@@ -339,15 +189,6 @@
     <x:t>Mohamed waleed hosny ali</x:t>
   </x:si>
   <x:si>
-    <x:t>1230255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم أيمن عمران عبدالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Ayman Omran Abdallah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230261</x:t>
   </x:si>
   <x:si>
@@ -366,15 +207,6 @@
     <x:t>Menatallah Wael Sadek El Sawy Badr</x:t>
   </x:si>
   <x:si>
-    <x:t>1230119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ناتالى تامر محمد سمير عبده احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nataly Tamer Mohamed Samir Abdou</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230271</x:t>
   </x:si>
   <x:si>
@@ -418,24 +250,6 @@
   </x:si>
   <x:si>
     <x:t>YASSEN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف ايهاب سمير عفيفى مصطفى الشاهد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200317</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد محمد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Mohamed Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -551,7 +365,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +665,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -861,7 +675,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.540625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="54.720625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1006,7 +820,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6727578357</x:v>
+        <x:v>45907.4191016551</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1038,7 +852,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6648507292</x:v>
+        <x:v>45907.419644294</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1066,11 +880,9 @@
       <x:c r="C6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
+      <x:c r="D6" s="2" t="s"/>
       <x:c r="E6" s="3">
-        <x:v>45907.4191016551</x:v>
+        <x:v>45907.4331415857</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1093,16 +905,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.4121707986</x:v>
+        <x:v>45907.4179172106</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1125,16 +937,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.419644294</x:v>
+        <x:v>45907.427625463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1157,16 +969,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651860764</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1189,16 +1001,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.4123898148</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1221,16 +1033,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.4117393519</x:v>
+        <x:v>45907.4200563657</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1253,14 +1065,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45907.4331415857</x:v>
+        <x:v>45921.5474557523</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1283,16 +1095,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4179172106</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1315,16 +1127,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.427625463</x:v>
+        <x:v>45907.4213496875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1347,14 +1159,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45907.6675648148</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1386,7 +1200,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1418,7 +1232,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651596875</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1450,7 +1264,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1482,7 +1296,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.4204280093</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1514,7 +1328,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1546,7 +1360,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.411008912</x:v>
+        <x:v>45907.4145850694</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1578,7 +1392,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.4108064815</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1610,7 +1424,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6648132755</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1642,7 +1456,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.4105918634</x:v>
+        <x:v>45921.5467664352</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1670,9 +1484,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.4115727199</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1695,16 +1511,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646134259</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1722,678 +1538,6 @@
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
     </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.4201239931</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45907.4213496875</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.5315019676</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.4201094907</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.4209305556</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.4206368403</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.5128673264</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.414816169</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.6646984606</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.4204280093</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.6649017708</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.4192667824</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45907.4145850694</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45914.4113524653</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45907.4195184375</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45907.4207956829</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45907.6651647801</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45907.420059456</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45907.4203140046</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45907.665069213</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45907.6651545139</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2406,9 +1550,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Signal Analysis (EECS203) Location : [20511]20511-45-الجيزة الرئيسي Time : Tuesday(8:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS203_Lecture-35299.xlsx
+++ b/downloaded_files/EECS203_Lecture-35299.xlsx
@@ -120,6 +120,15 @@
     <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
+    <x:t>1230055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن خالد محمد فصيح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240033</x:t>
   </x:si>
   <x:si>
@@ -232,15 +241,6 @@
   </x:si>
   <x:si>
     <x:t>Waleyeldeen Ahmed Hussein Mahmoud Othman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ياسين احمد سامي عبد المنعم سرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yasien Ahmed Samy Serry</x:t>
   </x:si>
   <x:si>
     <x:t>1230310</x:t>
@@ -1070,9 +1070,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.5474557523</x:v>
+        <x:v>45927.4154089931</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1095,16 +1097,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45921.5474557523</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1136,7 +1136,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4213496875</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1168,7 +1168,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45907.4213496875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1200,7 +1200,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1232,7 +1232,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1264,7 +1264,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1296,7 +1296,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4204280093</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1328,7 +1328,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45907.4204280093</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1360,7 +1360,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4145850694</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1392,7 +1392,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45907.4145850694</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1424,7 +1424,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1456,7 +1456,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.5467664352</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1488,7 +1488,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45921.5467664352</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/EECS203_Lecture-35299.xlsx
+++ b/downloaded_files/EECS203_Lecture-35299.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -127,6 +127,15 @@
   </x:si>
   <x:si>
     <x:t>Abd Elrahman Khaled Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد الطاهر علي ابوشحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid El Taher Ali</x:t>
   </x:si>
   <x:si>
     <x:t>4240033</x:t>
@@ -365,7 +374,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -665,7 +674,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1102,9 +1111,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45921.5474557523</x:v>
+        <x:v>45928.4088732639</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1127,16 +1138,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45921.5474557523</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1168,7 +1177,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4213496875</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1200,7 +1209,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45907.4213496875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1232,7 +1241,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1264,7 +1273,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1296,7 +1305,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1328,7 +1337,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4204280093</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1360,7 +1369,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45907.4204280093</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1392,7 +1401,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4145850694</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1424,7 +1433,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45907.4145850694</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.5467664352</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45921.5467664352</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1537,6 +1546,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.4203140046</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Lecture-35299.xlsx
+++ b/downloaded_files/EECS203_Lecture-35299.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -84,15 +84,6 @@
     <x:t>Zeyad Ahmed Mahmoud Abdelbaky Osman</x:t>
   </x:si>
   <x:si>
-    <x:t>1210228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد حازم احمد شفيق كامل حسن عبدالمنعم كامل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Hazem Ahmed Shafik Kamil Hasan Abdel-Monem Kamil</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220119</x:t>
   </x:si>
   <x:si>
@@ -109,15 +100,6 @@
   </x:si>
   <x:si>
     <x:t>Shady Ashraf Mohamed Samy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
     <x:t>1230055</x:t>
@@ -374,7 +356,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -674,7 +656,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -682,7 +664,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.540625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="34.830625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="54.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -955,7 +937,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.427625463</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -987,7 +969,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1019,7 +1001,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45927.4154089931</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1051,7 +1033,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45928.4088732639</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1079,11 +1061,9 @@
       <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45927.4154089931</x:v>
+        <x:v>45921.5474557523</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1106,16 +1086,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45928.4088732639</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1138,14 +1118,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45921.5474557523</x:v>
+        <x:v>45907.4213496875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1177,7 +1159,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1209,7 +1191,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4213496875</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1241,7 +1223,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1273,7 +1255,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1305,7 +1287,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45907.4204280093</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1337,7 +1319,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1369,7 +1351,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4204280093</x:v>
+        <x:v>45907.4145850694</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1401,7 +1383,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1433,7 +1415,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4145850694</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1465,7 +1447,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45921.5467664352</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1497,7 +1479,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1514,70 +1496,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45921.5467664352</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.4203140046</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Lecture-35299.xlsx
+++ b/downloaded_files/EECS203_Lecture-35299.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -100,6 +100,15 @@
   </x:si>
   <x:si>
     <x:t>Shady Ashraf Mohamed Samy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
     <x:t>1230055</x:t>
@@ -356,7 +365,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -656,7 +665,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1001,7 +1010,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4154089931</x:v>
+        <x:v>45928.9547305556</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1033,7 +1042,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.4088732639</x:v>
+        <x:v>45927.4154089931</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1061,9 +1070,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.5474557523</x:v>
+        <x:v>45928.4088732639</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1086,16 +1097,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45921.5474557523</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1127,7 +1136,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4213496875</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1159,7 +1168,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45907.4213496875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1191,7 +1200,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4209305556</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1223,7 +1232,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45907.4209305556</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1255,7 +1264,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1287,7 +1296,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4204280093</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45907.4204280093</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4145850694</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45907.4145850694</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.5467664352</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45921.5467664352</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1496,6 +1505,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.4203140046</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Lecture-35299.xlsx
+++ b/downloaded_files/EECS203_Lecture-35299.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -196,6 +196,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed waleed hosny ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1170117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى مرسى عبد المتجلى محمد مرسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Morsy Abdel Motagally</x:t>
   </x:si>
   <x:si>
     <x:t>1230261</x:t>
@@ -365,7 +374,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -665,7 +674,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1360,7 +1369,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45937.3412021991</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1392,7 +1401,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4145850694</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1424,7 +1433,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4195184375</x:v>
+        <x:v>45907.4145850694</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.4195184375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.5467664352</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45921.5467664352</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1537,6 +1546,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.4203140046</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS203_Lecture-35299.xlsx
+++ b/downloaded_files/EECS203_Lecture-35299.xlsx
@@ -117,7 +117,7 @@
     <x:t>عبدالرحمن خالد محمد فصيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+    <x:t>Abd Elrahman Khaled Mohamed Faseeh</x:t>
   </x:si>
   <x:si>
     <x:t>1230077</x:t>
@@ -147,10 +147,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1230228</x:t>
